--- a/automatic_trading/garch/garch_daily/daily_pred_record.xlsx
+++ b/automatic_trading/garch/garch_daily/daily_pred_record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dingwenjie\Desktop\demo\备份\-\automatic_trading\garch\garch_daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C173E841-0F44-4E84-80CC-40028B786F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BD3BC1-858F-43EC-A30F-A9B45FCB3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="-12555" windowWidth="22410" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="2400" windowWidth="25920" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>作出预测的日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,7 +50,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际iv</t>
+    <t>实际近月iv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际次月iv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近月准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次月准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近月准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次月准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +95,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,13 +129,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -376,18 +421,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,8 +451,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20221125</v>
       </c>
@@ -414,8 +480,27 @@
       <c r="D2">
         <v>19.809999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>21.13</v>
+      </c>
+      <c r="F2">
+        <f>IF((B2-C2)*(D3-D2)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>IF((B2-C2)*(E3-E2)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <f>COUNTIF(F:F,"1")/(COUNTIF(F:F,"&lt;&gt;")-2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K2" s="1">
+        <f>COUNTIF(G:G,"1")/(COUNTIF(G:G,"&lt;&gt;")-2)</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20221128</v>
       </c>
@@ -428,8 +513,21 @@
       <c r="D3">
         <v>20.78</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>21.91</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F17" si="0">IF((B3-C3)*(D4-D3)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G17" si="1">IF((B3-C3)*(E4-E3)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20221129</v>
       </c>
@@ -442,8 +540,22 @@
       <c r="D4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>22.31</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20221130</v>
       </c>
@@ -456,8 +568,19 @@
       <c r="D5">
         <v>21.78</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>22.12</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20221201</v>
       </c>
@@ -470,13 +593,298 @@
       <c r="D6">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>21.4</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20221202</v>
       </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E7">
+        <v>20.61</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20221205</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>20.16</v>
+      </c>
+      <c r="E8">
+        <v>20.98</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20221206</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>19.97</v>
+      </c>
+      <c r="E9">
+        <v>20.66</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20221207</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>20.12</v>
+      </c>
+      <c r="E10">
+        <v>20.78</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20221208</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>19.78</v>
+      </c>
+      <c r="E11">
+        <v>20.61</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20221209</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="E12">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20221212</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>19.43</v>
+      </c>
+      <c r="E13">
+        <v>19.93</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20221213</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="E14">
+        <v>20.329999999999998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20221214</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>19.5</v>
+      </c>
+      <c r="E15">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20221215</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>18.25</v>
+      </c>
+      <c r="E16">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20221216</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>18.02</v>
+      </c>
+      <c r="E17">
+        <v>19.43</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
